--- a/Tests/Validation/Wheat/Maricopa/SimNameMap.xlsx
+++ b/Tests/Validation/Wheat/Maricopa/SimNameMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\ApsimX\Tests\Validation\Wheat\Maricopa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C352AD8-63F6-4113-968E-11F96BA6F9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B749F574-67E9-451F-9B20-75622B381926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6D079DFB-3E2A-492F-B012-27AADCAABF49}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
   <si>
     <t>Code</t>
   </si>
@@ -78,6 +78,54 @@
   </si>
   <si>
     <t>MaricopaFACE96</t>
+  </si>
+  <si>
+    <t>MaricopaFACE92Treatment901_CO2_370_Irrig_Low</t>
+  </si>
+  <si>
+    <t>MaricopaFACE92Treatment902_CO2_370_Irrig_High</t>
+  </si>
+  <si>
+    <t>MaricopaFACE92Treatment903_CO2_550_Irrig_Low</t>
+  </si>
+  <si>
+    <t>MaricopaFACE92Treatment904_CO2_550_Irrig_HIgh</t>
+  </si>
+  <si>
+    <t>MaricopaFACE93Treatment905_CO2_370_Irrig_Low</t>
+  </si>
+  <si>
+    <t>MaricopaFACE93Treatment906_CO2_370_Irrig_High</t>
+  </si>
+  <si>
+    <t>MaricopaFACE93Treatment907_CO2_550_Irrig_Low</t>
+  </si>
+  <si>
+    <t>MaricopaFACE93Treatment908_CO2_550_Irrig_HIgh</t>
+  </si>
+  <si>
+    <t>MaricopaFACE95Treatment909_CO2_370_Nit_Low</t>
+  </si>
+  <si>
+    <t>MaricopaFACE95Treatment910_CO2_370_Nit_High</t>
+  </si>
+  <si>
+    <t>MaricopaFACE95Treatment911_CO2_550_Nit_Low</t>
+  </si>
+  <si>
+    <t>MaricopaFACE95Treatment912_CO2_550_Nit_HIgh</t>
+  </si>
+  <si>
+    <t>MaricopaFACE96Treatment913_CO2_370_Nit_Low</t>
+  </si>
+  <si>
+    <t>MaricopaFACE96Treatment914_CO2_370_Nit_High</t>
+  </si>
+  <si>
+    <t>MaricopaFACE96Treatment915_CO2_550_Nit_Low</t>
+  </si>
+  <si>
+    <t>MaricopaFACE96Treatment916_CO2_550_Nit_HIgh</t>
   </si>
 </sst>
 </file>
@@ -473,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0934F740-16A8-4BE3-8435-DD76F4BDCD91}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G17"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,7 +532,7 @@
     <col min="7" max="7" width="43.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -507,7 +555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>901</v>
       </c>
@@ -527,8 +575,11 @@
         <f>B2&amp;"Treatment"&amp;C2&amp;"_CO2_"&amp;D2&amp;"_Irrig_"&amp;E2</f>
         <v>MaricopaFACE92Treatment901_CO2_370_Irrig_Low</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>902</v>
       </c>
@@ -549,8 +600,11 @@
         <f t="shared" ref="G3:G9" si="0">B3&amp;"Treatment"&amp;C3&amp;"_CO2_"&amp;D3&amp;"_Irrig_"&amp;E3</f>
         <v>MaricopaFACE92Treatment902_CO2_370_Irrig_High</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>903</v>
       </c>
@@ -571,8 +625,11 @@
         <f t="shared" si="0"/>
         <v>MaricopaFACE92Treatment903_CO2_550_Irrig_Low</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>904</v>
       </c>
@@ -593,8 +650,11 @@
         <f t="shared" si="0"/>
         <v>MaricopaFACE92Treatment904_CO2_550_Irrig_HIgh</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>905</v>
       </c>
@@ -615,8 +675,11 @@
         <f t="shared" si="0"/>
         <v>MaricopaFACE93Treatment905_CO2_370_Irrig_Low</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>906</v>
       </c>
@@ -637,8 +700,11 @@
         <f t="shared" si="0"/>
         <v>MaricopaFACE93Treatment906_CO2_370_Irrig_High</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>907</v>
       </c>
@@ -659,8 +725,11 @@
         <f t="shared" si="0"/>
         <v>MaricopaFACE93Treatment907_CO2_550_Irrig_Low</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>908</v>
       </c>
@@ -681,8 +750,11 @@
         <f t="shared" si="0"/>
         <v>MaricopaFACE93Treatment908_CO2_550_Irrig_HIgh</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>909</v>
       </c>
@@ -703,8 +775,11 @@
         <f>B10&amp;"Treatment"&amp;C10&amp;"_CO2_"&amp;D10&amp;"_Nit_"&amp;F10</f>
         <v>MaricopaFACE95Treatment909_CO2_370_Nit_Low</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>910</v>
       </c>
@@ -725,8 +800,11 @@
         <f t="shared" ref="G11:G17" si="2">B11&amp;"Treatment"&amp;C11&amp;"_CO2_"&amp;D11&amp;"_Nit_"&amp;F11</f>
         <v>MaricopaFACE95Treatment910_CO2_370_Nit_High</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>911</v>
       </c>
@@ -747,8 +825,11 @@
         <f t="shared" si="2"/>
         <v>MaricopaFACE95Treatment911_CO2_550_Nit_Low</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>912</v>
       </c>
@@ -769,8 +850,11 @@
         <f t="shared" si="2"/>
         <v>MaricopaFACE95Treatment912_CO2_550_Nit_HIgh</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>913</v>
       </c>
@@ -791,8 +875,11 @@
         <f t="shared" si="2"/>
         <v>MaricopaFACE96Treatment913_CO2_370_Nit_Low</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>914</v>
       </c>
@@ -813,8 +900,11 @@
         <f t="shared" si="2"/>
         <v>MaricopaFACE96Treatment914_CO2_370_Nit_High</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>915</v>
       </c>
@@ -835,8 +925,11 @@
         <f t="shared" si="2"/>
         <v>MaricopaFACE96Treatment915_CO2_550_Nit_Low</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>916</v>
       </c>
@@ -851,11 +944,14 @@
         <v>550</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="2"/>
-        <v>MaricopaFACE96Treatment916_CO2_550_Nit_HIgh</v>
+        <v>MaricopaFACE96Treatment916_CO2_550_Nit_High</v>
+      </c>
+      <c r="I17" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Tests/Validation/Wheat/Maricopa/SimNameMap.xlsx
+++ b/Tests/Validation/Wheat/Maricopa/SimNameMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\ApsimX\Tests\Validation\Wheat\Maricopa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B749F574-67E9-451F-9B20-75622B381926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70366191-CC37-45F2-9DEE-F97F15085AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6D079DFB-3E2A-492F-B012-27AADCAABF49}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D079DFB-3E2A-492F-B012-27AADCAABF49}"/>
   </bookViews>
   <sheets>
     <sheet name="Map" sheetId="1" r:id="rId1"/>
@@ -59,9 +59,6 @@
     <t>SimulationName</t>
   </si>
   <si>
-    <t>MaricopaFACE92</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
@@ -71,15 +68,6 @@
     <t>HIgh</t>
   </si>
   <si>
-    <t>MaricopaFACE93</t>
-  </si>
-  <si>
-    <t>MaricopaFACE95</t>
-  </si>
-  <si>
-    <t>MaricopaFACE96</t>
-  </si>
-  <si>
     <t>MaricopaFACE92Treatment901_CO2_370_Irrig_Low</t>
   </si>
   <si>
@@ -126,13 +114,25 @@
   </si>
   <si>
     <t>MaricopaFACE96Treatment916_CO2_550_Nit_HIgh</t>
+  </si>
+  <si>
+    <t>MaricopaFACE92_93</t>
+  </si>
+  <si>
+    <t>MaricopaFACE93_94</t>
+  </si>
+  <si>
+    <t>MaricopaFACE95_96</t>
+  </si>
+  <si>
+    <t>MaricopaFACE96_97</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +145,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -524,15 +530,16 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="43.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -555,12 +562,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>901</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <v>901</v>
@@ -569,22 +576,22 @@
         <v>370</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" t="str">
         <f>B2&amp;"Treatment"&amp;C2&amp;"_CO2_"&amp;D2&amp;"_Irrig_"&amp;E2</f>
-        <v>MaricopaFACE92Treatment901_CO2_370_Irrig_Low</v>
+        <v>MaricopaFACE92_93Treatment901_CO2_370_Irrig_Low</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>902</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <f>C2+1</f>
@@ -594,22 +601,22 @@
         <v>370</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G9" si="0">B3&amp;"Treatment"&amp;C3&amp;"_CO2_"&amp;D3&amp;"_Irrig_"&amp;E3</f>
-        <v>MaricopaFACE92Treatment902_CO2_370_Irrig_High</v>
+        <v>MaricopaFACE92_93Treatment902_CO2_370_Irrig_High</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>903</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C17" si="1">C3+1</f>
@@ -619,22 +626,22 @@
         <v>550</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>MaricopaFACE92Treatment903_CO2_550_Irrig_Low</v>
+        <v>MaricopaFACE92_93Treatment903_CO2_550_Irrig_Low</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>904</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
@@ -644,22 +651,22 @@
         <v>550</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>MaricopaFACE92Treatment904_CO2_550_Irrig_HIgh</v>
+        <v>MaricopaFACE92_93Treatment904_CO2_550_Irrig_HIgh</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>905</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
@@ -669,22 +676,22 @@
         <v>370</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>MaricopaFACE93Treatment905_CO2_370_Irrig_Low</v>
+        <v>MaricopaFACE93_94Treatment905_CO2_370_Irrig_Low</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>906</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
@@ -694,22 +701,22 @@
         <v>370</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>MaricopaFACE93Treatment906_CO2_370_Irrig_High</v>
+        <v>MaricopaFACE93_94Treatment906_CO2_370_Irrig_High</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>907</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
@@ -719,22 +726,22 @@
         <v>550</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>MaricopaFACE93Treatment907_CO2_550_Irrig_Low</v>
+        <v>MaricopaFACE93_94Treatment907_CO2_550_Irrig_Low</v>
       </c>
       <c r="I8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>908</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
@@ -744,22 +751,22 @@
         <v>550</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>MaricopaFACE93Treatment908_CO2_550_Irrig_HIgh</v>
+        <v>MaricopaFACE93_94Treatment908_CO2_550_Irrig_HIgh</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>909</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
@@ -769,22 +776,22 @@
         <v>370</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G10" t="str">
         <f>B10&amp;"Treatment"&amp;C10&amp;"_CO2_"&amp;D10&amp;"_Nit_"&amp;F10</f>
-        <v>MaricopaFACE95Treatment909_CO2_370_Nit_Low</v>
+        <v>MaricopaFACE95_96Treatment909_CO2_370_Nit_Low</v>
       </c>
       <c r="I10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>910</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
@@ -794,22 +801,22 @@
         <v>370</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" ref="G11:G17" si="2">B11&amp;"Treatment"&amp;C11&amp;"_CO2_"&amp;D11&amp;"_Nit_"&amp;F11</f>
-        <v>MaricopaFACE95Treatment910_CO2_370_Nit_High</v>
+        <v>MaricopaFACE95_96Treatment910_CO2_370_Nit_High</v>
       </c>
       <c r="I11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>911</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
@@ -819,22 +826,22 @@
         <v>550</v>
       </c>
       <c r="F12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="2"/>
-        <v>MaricopaFACE95Treatment911_CO2_550_Nit_Low</v>
+        <v>MaricopaFACE95_96Treatment911_CO2_550_Nit_Low</v>
       </c>
       <c r="I12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>912</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
@@ -844,22 +851,22 @@
         <v>550</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="2"/>
-        <v>MaricopaFACE95Treatment912_CO2_550_Nit_HIgh</v>
+        <v>MaricopaFACE95_96Treatment912_CO2_550_Nit_HIgh</v>
       </c>
       <c r="I13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>913</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
@@ -869,22 +876,22 @@
         <v>370</v>
       </c>
       <c r="F14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="2"/>
-        <v>MaricopaFACE96Treatment913_CO2_370_Nit_Low</v>
+        <v>MaricopaFACE96_97Treatment913_CO2_370_Nit_Low</v>
       </c>
       <c r="I14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>914</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
@@ -894,22 +901,22 @@
         <v>370</v>
       </c>
       <c r="F15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="2"/>
-        <v>MaricopaFACE96Treatment914_CO2_370_Nit_High</v>
+        <v>MaricopaFACE96_97Treatment914_CO2_370_Nit_High</v>
       </c>
       <c r="I15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>915</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
@@ -919,22 +926,22 @@
         <v>550</v>
       </c>
       <c r="F16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="2"/>
-        <v>MaricopaFACE96Treatment915_CO2_550_Nit_Low</v>
+        <v>MaricopaFACE96_97Treatment915_CO2_550_Nit_Low</v>
       </c>
       <c r="I16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>916</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
@@ -944,17 +951,18 @@
         <v>550</v>
       </c>
       <c r="F17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="2"/>
-        <v>MaricopaFACE96Treatment916_CO2_550_Nit_High</v>
+        <v>MaricopaFACE96_97Treatment916_CO2_550_Nit_High</v>
       </c>
       <c r="I17" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>